--- a/server/docs/FactionCfgExcel_com.wan37.config.entity.FactionCfgExcel.xlsx
+++ b/server/docs/FactionCfgExcel_com.wan37.config.entity.FactionCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896E906E-0E42-427A-A817-760628AF9DD0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A67CEB4-78FE-4C37-9B03-B7D1A793B336}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +55,22 @@
   </si>
   <si>
     <t>1:800,2:200,3:100,6:20,7:4,8:4,9:4,10:20,11:100,12:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initSkill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始属性（AttrCfg#id:值）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始技能（SkillCfg#id:等级）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100001:1,100002:2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -380,23 +396,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="60.33203125" customWidth="1"/>
+    <col min="3" max="3" width="47.33203125" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -406,8 +429,11 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -417,8 +443,11 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -428,8 +457,11 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -439,8 +471,11 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -449,6 +484,9 @@
       </c>
       <c r="C6" t="s">
         <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/server/docs/FactionCfgExcel_com.wan37.config.entity.FactionCfgExcel.xlsx
+++ b/server/docs/FactionCfgExcel_com.wan37.config.entity.FactionCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A67CEB4-78FE-4C37-9B03-B7D1A793B336}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA041CB8-F515-4314-9C17-EE95FFC1DA08}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1:800,2:200,3:100,6:20,7:4,8:4,9:4,10:20,11:100,12:20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>initSkill</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,6 +67,10 @@
   </si>
   <si>
     <t>100001:1,100002:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:800,2:200,3:50,6:20,7:4,8:4,9:4,10:20,11:100,12:20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -399,7 +399,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -413,10 +413,10 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
         <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -430,7 +430,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -441,10 +441,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -455,10 +455,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -469,10 +469,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -483,10 +483,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/server/docs/FactionCfgExcel_com.wan37.config.entity.FactionCfgExcel.xlsx
+++ b/server/docs/FactionCfgExcel_com.wan37.config.entity.FactionCfgExcel.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA041CB8-F515-4314-9C17-EE95FFC1DA08}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB35A97-F465-448F-AEC6-E67DA5E28584}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,10 @@
   </si>
   <si>
     <t>1:800,2:200,3:50,6:20,7:4,8:4,9:4,10:20,11:100,12:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100001:1,100002:2,100003:1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -399,7 +403,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -444,7 +448,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">

--- a/server/docs/FactionCfgExcel_com.wan37.config.entity.FactionCfgExcel.xlsx
+++ b/server/docs/FactionCfgExcel_com.wan37.config.entity.FactionCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB35A97-F465-448F-AEC6-E67DA5E28584}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E394533-D109-4D99-88ED-51CC3653D99E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,15 +66,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100001:1,100002:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1:800,2:200,3:50,6:20,7:4,8:4,9:4,10:20,11:100,12:20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100001:1,100002:2,100003:1</t>
+    <t>1:5000,2:200,3:50,6:20,7:4,8:4,9:4,10:20,11:100,12:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:1200,2:200,3:50,6:20,7:4,8:4,9:4,10:20,11:100,12:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:1,2:2,3:1:4:1,5:1,6:1,7:1,101:1,102:1,103:1,104:1,105:1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -126,6 +130,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -145,7 +217,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -403,13 +475,13 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="47.33203125" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="4" max="4" width="79.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -448,7 +520,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -459,10 +531,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -473,10 +545,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -487,10 +559,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/server/docs/FactionCfgExcel_com.wan37.config.entity.FactionCfgExcel.xlsx
+++ b/server/docs/FactionCfgExcel_com.wan37.config.entity.FactionCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E394533-D109-4D99-88ED-51CC3653D99E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D62D1A-71E2-496C-8292-4A4844DB720B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,7 +78,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1:1,2:2,3:1:4:1,5:1,6:1,7:1,101:1,102:1,103:1,104:1,105:1</t>
+    <t>1:1,2:2,3:1:4:1,5:1,6:1,7:1,101:1,102:1,103:1,104:1,105:1,201:1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -217,7 +217,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CEEACA"/>
+        <a:sysClr val="window" lastClr="CAEACE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -475,7 +475,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
